--- a/data/trans_orig/P14B28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD0D5BF2-7898-4621-8D91-9F9196639721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C2B7AD-17F2-44D7-B9E9-AF91980E2CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44CA6B9C-17C7-47A9-8F4D-CEA40F480F09}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEC2B3A-6937-4FC9-9300-C46D3512760A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="311">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -118,7 +118,7 @@
     <t>81,73%</t>
   </si>
   <si>
-    <t>45,37%</t>
+    <t>44,39%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -130,7 +130,7 @@
     <t>18,27%</t>
   </si>
   <si>
-    <t>54,63%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -139,49 +139,49 @@
     <t>86,19%</t>
   </si>
   <si>
-    <t>42,8%</t>
+    <t>42,73%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>57,2%</t>
+    <t>57,27%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -190,55 +190,55 @@
     <t>63,06%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
   </si>
   <si>
     <t>19,02%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -247,55 +247,55 @@
     <t>57,24%</t>
   </si>
   <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>42,76%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -304,109 +304,109 @@
     <t>87,31%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>88,5%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>11,5%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>79,39%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>84,25%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>20,61%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>15,75%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -433,538 +433,544 @@
     <t>34,65%</t>
   </si>
   <si>
-    <t>77,29%</t>
+    <t>75,24%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>50,57%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>65,35%</t>
   </si>
   <si>
-    <t>22,71%</t>
+    <t>24,76%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
   </si>
   <si>
     <t>49,43%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>69,91%</t>
   </si>
   <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>71,73%</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
   </si>
   <si>
     <t>79,89%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>73,35%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>81,39%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>77,07%</t>
   </si>
   <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>72,02%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
   </si>
   <si>
     <t>27,98%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>28,43%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>41,34%</t>
   </si>
   <si>
-    <t>71,57%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>26,99%</t>
   </si>
   <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE685BB-8002-492D-BD40-070BAF7B1C11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB11F047-6C38-456C-A23E-B2C876117460}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2595,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65892139-9865-4FC2-9884-A5E90A94FB7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB6617-1C29-4C34-A44D-AE49F0C9D062}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3808,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52533F52-B92D-491F-97AD-72361E3C303B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182D9C07-8161-43C0-85B4-B9DF53024B72}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4097,10 +4103,10 @@
         <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4112,10 +4118,10 @@
         <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4149,13 @@
         <v>2813</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -4158,13 +4164,13 @@
         <v>2813</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4230,10 +4236,10 @@
         <v>6280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -4245,10 +4251,10 @@
         <v>13201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>229</v>
@@ -4296,13 +4302,13 @@
         <v>3018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4311,13 +4317,13 @@
         <v>3178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4391,13 @@
         <v>20425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -4400,13 +4406,13 @@
         <v>49433</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4415,13 +4421,13 @@
         <v>69859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4442,13 @@
         <v>6076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4451,13 +4457,13 @@
         <v>19532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4466,13 +4472,13 @@
         <v>25607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,13 +4546,13 @@
         <v>33598</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -4555,13 +4561,13 @@
         <v>72608</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -4570,13 +4576,13 @@
         <v>106207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4597,13 @@
         <v>13052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -4606,13 +4612,13 @@
         <v>36967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -4621,13 +4627,13 @@
         <v>50019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4701,13 @@
         <v>74345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H19" s="7">
         <v>497</v>
@@ -4710,13 +4716,13 @@
         <v>260530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -4725,13 +4731,13 @@
         <v>334875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4752,13 @@
         <v>30478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -4761,13 +4767,13 @@
         <v>183622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
@@ -4776,13 +4782,13 @@
         <v>214100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4856,13 @@
         <v>134649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>711</v>
@@ -4865,13 +4871,13 @@
         <v>407179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M22" s="7">
         <v>884</v>
@@ -4880,13 +4886,13 @@
         <v>541828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4907,13 @@
         <v>49765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7">
         <v>246</v>
@@ -4916,13 +4922,13 @@
         <v>245952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M23" s="7">
         <v>312</v>
@@ -4931,13 +4937,13 @@
         <v>295717</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B28-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B28-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29C2B7AD-17F2-44D7-B9E9-AF91980E2CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50908D0-E7D5-48BE-8B96-A1CBB4AE59B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEC2B3A-6937-4FC9-9300-C46D3512760A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D0633D5-30B2-4B3C-94D3-A13292DAC6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="309">
   <si>
     <t>Población cuya artritis le limita en 2012 (Tasa respuesta: 8,61%)</t>
   </si>
@@ -118,7 +118,7 @@
     <t>81,73%</t>
   </si>
   <si>
-    <t>44,39%</t>
+    <t>44,79%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -130,7 +130,7 @@
     <t>18,27%</t>
   </si>
   <si>
-    <t>55,61%</t>
+    <t>55,21%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -139,49 +139,43 @@
     <t>86,19%</t>
   </si>
   <si>
-    <t>42,73%</t>
+    <t>41,37%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>55,95%</t>
   </si>
   <si>
     <t>81,15%</t>
   </si>
   <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>57,27%</t>
+    <t>58,63%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>44,05%</t>
   </si>
   <si>
     <t>18,85%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -190,7 +184,7 @@
     <t>63,06%</t>
   </si>
   <si>
-    <t>28,92%</t>
+    <t>29,26%</t>
   </si>
   <si>
     <t>90,91%</t>
@@ -199,19 +193,19 @@
     <t>80,98%</t>
   </si>
   <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
   </si>
   <si>
     <t>36,94%</t>
@@ -220,25 +214,25 @@
     <t>9,09%</t>
   </si>
   <si>
-    <t>71,08%</t>
+    <t>70,74%</t>
   </si>
   <si>
     <t>19,02%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -247,55 +241,55 @@
     <t>57,24%</t>
   </si>
   <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>42,76%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -304,658 +298,658 @@
     <t>87,31%</t>
   </si>
   <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2016 (Tasa respuesta: 6,27%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2015 (Tasa respuesta: 6,27%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>49,43%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>95,72%</t>
   </si>
   <si>
     <t>70,62%</t>
   </si>
   <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>4,28%</t>
   </si>
   <si>
     <t>29,38%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
   </si>
   <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>64,38%</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>71,56%</t>
   </si>
   <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>69,91%</t>
   </si>
   <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
   </si>
   <si>
     <t>35,62%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
   </si>
   <si>
     <t>28,44%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>30,09%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
   </si>
   <si>
     <t>37,66%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>Población cuya artritis le limita en 2023 (Tasa respuesta: 13,68%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
   </si>
   <si>
     <t>24,37%</t>
@@ -1382,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB11F047-6C38-456C-A23E-B2C876117460}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6F8A32-E651-4309-BBEF-24A78DB866AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,7 +1831,7 @@
         <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1846,13 +1840,13 @@
         <v>16775</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,13 +1861,13 @@
         <v>937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -1882,13 +1876,13 @@
         <v>2959</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1897,13 +1891,13 @@
         <v>3896</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,7 +1953,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1971,13 +1965,13 @@
         <v>7341</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -1986,13 +1980,13 @@
         <v>39073</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -2001,13 +1995,13 @@
         <v>46415</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2016,13 @@
         <v>4300</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2037,13 +2031,13 @@
         <v>9179</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -2052,13 +2046,13 @@
         <v>13478</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,7 +2108,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2126,13 +2120,13 @@
         <v>22872</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -2141,13 +2135,13 @@
         <v>68119</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>86</v>
@@ -2156,13 +2150,13 @@
         <v>90992</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2171,13 @@
         <v>17084</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2192,13 +2186,13 @@
         <v>22819</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2207,13 +2201,13 @@
         <v>39903</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2263,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2281,13 +2275,13 @@
         <v>93608</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>229</v>
@@ -2296,13 +2290,13 @@
         <v>248652</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>314</v>
@@ -2311,13 +2305,13 @@
         <v>342260</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2326,13 @@
         <v>13600</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2347,13 +2341,13 @@
         <v>30860</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>40</v>
@@ -2362,13 +2356,13 @@
         <v>44460</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2430,13 @@
         <v>138345</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>341</v>
@@ -2451,13 +2445,13 @@
         <v>368793</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>467</v>
@@ -2466,13 +2460,13 @@
         <v>507139</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2481,13 @@
         <v>35921</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
@@ -2502,13 +2496,13 @@
         <v>68943</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>93</v>
@@ -2517,13 +2511,13 @@
         <v>104863</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,7 +2573,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2601,7 +2595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB6617-1C29-4C34-A44D-AE49F0C9D062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556D9239-217D-41F2-959D-2DFD92933B50}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2618,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2723,13 +2717,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2741,7 +2735,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2756,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2772,13 +2766,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2793,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2808,7 +2802,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2815,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -2877,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2892,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2907,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2931,7 +2925,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2946,7 +2940,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2961,7 +2955,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3023,13 @@
         <v>2598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3044,13 +3038,13 @@
         <v>5386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3059,13 +3053,13 @@
         <v>7985</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,10 +3074,10 @@
         <v>4901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>11</v>
@@ -3095,13 +3089,13 @@
         <v>2903</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -3110,13 +3104,13 @@
         <v>7803</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,7 +3166,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3184,13 +3178,13 @@
         <v>20445</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -3199,13 +3193,13 @@
         <v>30087</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -3214,13 +3208,13 @@
         <v>50532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3229,13 @@
         <v>4515</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3250,13 +3244,13 @@
         <v>12517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3265,13 +3259,13 @@
         <v>17032</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3321,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3339,13 +3333,13 @@
         <v>15439</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -3354,13 +3348,13 @@
         <v>57630</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -3369,13 +3363,13 @@
         <v>73069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3384,13 @@
         <v>8544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -3405,13 +3399,13 @@
         <v>22909</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -3420,13 +3414,13 @@
         <v>31453</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,7 +3476,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3494,13 +3488,13 @@
         <v>46980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H19" s="7">
         <v>145</v>
@@ -3509,13 +3503,13 @@
         <v>167856</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M19" s="7">
         <v>196</v>
@@ -3524,13 +3518,13 @@
         <v>214836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3539,13 @@
         <v>16512</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -3560,13 +3554,13 @@
         <v>28462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -3575,13 +3569,13 @@
         <v>44974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3643,13 @@
         <v>87474</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H22" s="7">
         <v>234</v>
@@ -3664,13 +3658,13 @@
         <v>265292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
         <v>320</v>
@@ -3679,13 +3673,13 @@
         <v>352766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3694,13 @@
         <v>34471</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
         <v>58</v>
@@ -3715,13 +3709,13 @@
         <v>66791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -3730,13 +3724,13 @@
         <v>101262</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,7 +3786,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3814,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182D9C07-8161-43C0-85B4-B9DF53024B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA3101A-D37B-4C48-8225-C87C74561269}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3831,7 +3825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3936,13 +3930,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -3954,7 +3948,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3969,7 +3963,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3985,13 +3979,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4006,7 +4000,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4021,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4028,13 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4085,13 +4079,13 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4100,13 +4094,13 @@
         <v>2900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4115,13 +4109,13 @@
         <v>2900</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4128,13 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4149,10 +4143,10 @@
         <v>2813</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>11</v>
@@ -4164,10 +4158,10 @@
         <v>2813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>11</v>
@@ -4183,13 +4177,13 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -4236,10 +4230,10 @@
         <v>6280</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -4251,13 +4245,13 @@
         <v>13201</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -4266,13 +4260,13 @@
         <v>19480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4281,13 @@
         <v>160</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4302,13 +4296,13 @@
         <v>3018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -4317,13 +4311,13 @@
         <v>3178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,7 +4373,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4391,13 +4385,13 @@
         <v>20425</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -4406,13 +4400,13 @@
         <v>49433</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -4421,13 +4415,13 @@
         <v>69859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4436,13 @@
         <v>6076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>30</v>
@@ -4457,13 +4451,13 @@
         <v>19532</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -4472,13 +4466,13 @@
         <v>25607</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4528,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4546,13 +4540,13 @@
         <v>33598</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -4561,13 +4555,13 @@
         <v>72608</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
@@ -4576,13 +4570,13 @@
         <v>106207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4591,13 @@
         <v>13052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>61</v>
@@ -4612,13 +4606,13 @@
         <v>36967</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -4627,13 +4621,13 @@
         <v>50019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4683,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4701,13 +4695,13 @@
         <v>74345</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>497</v>
@@ -4716,13 +4710,13 @@
         <v>260530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>609</v>
@@ -4731,13 +4725,13 @@
         <v>334875</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4746,13 @@
         <v>30478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -4767,13 +4761,13 @@
         <v>183622</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
@@ -4782,13 +4776,13 @@
         <v>214100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4850,13 @@
         <v>134649</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>711</v>
@@ -4871,13 +4865,13 @@
         <v>407179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>884</v>
@@ -4886,13 +4880,13 @@
         <v>541828</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4901,13 @@
         <v>49765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>246</v>
@@ -4922,13 +4916,13 @@
         <v>245952</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
         <v>312</v>
@@ -4937,13 +4931,13 @@
         <v>295717</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,7 +4993,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
